--- a/02_MasterWifoMannheim/99_Backup/Course83.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course83.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3D0DB4B639A2011596960776F91F9FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBF3198-E63E-42AF-A1B9-FF6322C57D54}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 682 International Asset Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The core of this course deals with asset management for private investors in an international context. We will cover the structure of the delegated investment markets around the world with a focus on the U.S. and Europe. The focus will be on traditional mutual funds and related products. on the practical implementation of portfolio strategies and the problems that can arise. We will learn how to measure the performance of investment strategies and of fund managers. Furthermore, behavioral aspects (irrational behavior of mutual fund investors and managers) will be discussed.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After the completion of this course, students will have gained a thorough understanding of the mutual fund industry. They will be familiar with the necessary tools to manage a mutual fund themselves, advise mutual fund investors, invest in mutual funds, and to work in the management of a mutual fund company.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Tatjana Puhan</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester – please check webpage for offering schedule (will not be offered regularly).</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Mathematical and Statistical Foundations (MSF), and Insurance (FIN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 682 International Asset Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The core of this course deals with asset management for private investors in an international context. We will cover the structure of the delegated investment markets around the world with a focus on the U.S. and Europe. The focus will be on traditional mutual funds and related products. on the practical implementation of portfolio strategies and the problems that can arise. We will learn how to measure the performance of investment strategies and of fund managers. Furthermore, behavioral aspects (irrational behavior of mutual fund investors and managers) will be discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After the completion of this course, students will have gained a thorough understanding of the mutual fund industry. They will be familiar with the necessary tools to manage a mutual fund themselves, advise mutual fund investors, invest in mutual funds, and to work in the management of a mutual fund company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mathematical and Statistical Foundations (MSF), and Insurance (FIN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Tatjana Puhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
